--- a/data/trans_orig/IP07C18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C18-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD987674-BFA5-4FE3-9A80-A7AE13CEF4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3284FA-D234-457B-8D18-27D34232F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{68D36E16-EC21-48D5-82B5-C0CA99A43174}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5EC44FFA-D0F3-4729-A24C-C7672C2958B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="673">
   <si>
     <t>Menores según frecuencia de llevarse bien con los profesores en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>43,19%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>41,81%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>33,05%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>30,5%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>31,73%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -139,1939 +139,1924 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,35%</t>
+    <t>32,35%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748A9B4-E1D8-4DFA-ABF0-BD4E198908F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C494D4A-7A9E-4EF7-85F7-BC4D381F98B8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2739,19 +2724,19 @@
         <v>4527</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -2760,13 +2745,13 @@
         <v>2133</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2778,10 +2763,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2790,19 +2775,19 @@
         <v>2133</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2814,10 +2799,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2829,10 +2814,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2844,10 +2829,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2847,13 @@
         <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -2877,13 +2862,13 @@
         <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -2892,18 +2877,18 @@
         <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2915,13 +2900,13 @@
         <v>19704</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2930,13 +2915,13 @@
         <v>22363</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -2945,13 +2930,13 @@
         <v>42068</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2951,13 @@
         <v>19364</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -2981,13 +2966,13 @@
         <v>16437</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -2996,13 +2981,13 @@
         <v>35802</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3002,13 @@
         <v>14391</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3032,13 +3017,13 @@
         <v>5359</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -3047,19 +3032,19 @@
         <v>19751</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -3068,13 +3053,13 @@
         <v>1374</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3086,10 +3071,10 @@
         <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3098,19 +3083,19 @@
         <v>1374</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3119,13 +3104,13 @@
         <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3137,10 +3122,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3149,13 +3134,13 @@
         <v>654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3155,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -3185,13 +3170,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -3200,18 +3185,18 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3223,13 +3208,13 @@
         <v>31602</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3238,13 +3223,13 @@
         <v>35251</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -3253,13 +3238,13 @@
         <v>66853</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3259,13 @@
         <v>32908</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -3289,13 +3274,13 @@
         <v>44763</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -3304,13 +3289,13 @@
         <v>77671</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3310,13 @@
         <v>22445</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -3340,13 +3325,13 @@
         <v>14718</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3355,19 +3340,19 @@
         <v>37163</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -3376,13 +3361,13 @@
         <v>1903</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3391,13 +3376,13 @@
         <v>1135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3406,19 +3391,19 @@
         <v>3038</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -3427,13 +3412,13 @@
         <v>3245</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3442,13 +3427,13 @@
         <v>2675</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3457,13 +3442,13 @@
         <v>5920</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3463,13 @@
         <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -3493,13 +3478,13 @@
         <v>98541</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>295</v>
@@ -3508,18 +3493,18 @@
         <v>190645</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3531,10 +3516,10 @@
         <v>26765</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>135</v>
@@ -3648,13 +3633,13 @@
         <v>9406</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -3663,7 +3648,7 @@
         <v>17429</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>156</v>
@@ -3675,7 +3660,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3726,7 +3711,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -3765,7 +3750,7 @@
         <v>3290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>169</v>
@@ -3786,13 +3771,13 @@
         <v>59938</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>90</v>
@@ -3801,13 +3786,13 @@
         <v>55021</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>185</v>
@@ -3816,13 +3801,13 @@
         <v>114960</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3968,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>4</v>
@@ -4025,16 +4010,16 @@
         <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>5</v>
@@ -4043,13 +4028,13 @@
         <v>3083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -4058,13 +4043,13 @@
         <v>5015</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -4073,13 +4058,13 @@
         <v>8098</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4079,13 @@
         <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -4109,13 +4094,13 @@
         <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>230</v>
@@ -4124,13 +4109,13 @@
         <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4132,13 @@
         <v>109471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H34" s="7">
         <v>180</v>
@@ -4162,13 +4147,13 @@
         <v>120296</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>345</v>
@@ -4177,13 +4162,13 @@
         <v>229767</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4183,13 @@
         <v>120944</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>168</v>
@@ -4213,13 +4198,13 @@
         <v>114313</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>350</v>
@@ -4228,13 +4213,13 @@
         <v>235257</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4234,13 @@
         <v>59733</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -4264,13 +4249,13 @@
         <v>42526</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>154</v>
@@ -4279,19 +4264,19 @@
         <v>102259</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>13</v>
@@ -4300,13 +4285,13 @@
         <v>8983</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4315,13 +4300,13 @@
         <v>3285</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -4330,19 +4315,19 @@
         <v>12267</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>14</v>
@@ -4351,13 +4336,13 @@
         <v>9008</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -4366,13 +4351,13 @@
         <v>8954</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
@@ -4384,10 +4369,10 @@
         <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4387,13 @@
         <v>308139</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="7">
         <v>430</v>
@@ -4417,13 +4402,13 @@
         <v>289374</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M39" s="7">
         <v>894</v>
@@ -4432,18 +4417,18 @@
         <v>597513</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4464,7 +4449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EC4B97-9D4B-4271-BBA3-19992572DA56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A211DDB-D993-4CFD-81FC-22A25B0CD3F5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4481,7 +4466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4588,13 +4573,13 @@
         <v>5081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4603,13 +4588,13 @@
         <v>7849</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4618,13 +4603,13 @@
         <v>12930</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4624,13 @@
         <v>8697</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4654,13 +4639,13 @@
         <v>2556</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4669,13 +4654,13 @@
         <v>11252</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4675,13 @@
         <v>712</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4705,13 +4690,13 @@
         <v>870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4720,19 +4705,19 @@
         <v>1583</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4744,10 +4729,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4759,10 +4744,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4774,16 +4759,16 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4795,10 +4780,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4810,10 +4795,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4825,10 +4810,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4828,13 @@
         <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4858,13 +4843,13 @@
         <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -4873,18 +4858,18 @@
         <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4896,13 +4881,13 @@
         <v>32021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4911,13 +4896,13 @@
         <v>35014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -4926,13 +4911,13 @@
         <v>67035</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4932,13 @@
         <v>20112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4962,13 +4947,13 @@
         <v>11406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -4977,13 +4962,13 @@
         <v>31517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4983,13 @@
         <v>4724</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -5013,13 +4998,13 @@
         <v>3410</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -5028,19 +5013,19 @@
         <v>8134</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -5049,13 +5034,13 @@
         <v>630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5064,13 +5049,13 @@
         <v>1631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5079,19 +5064,19 @@
         <v>2261</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5103,10 +5088,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5115,13 +5100,13 @@
         <v>710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5130,13 +5115,13 @@
         <v>710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5136,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -5166,13 +5151,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -5181,18 +5166,18 @@
         <v>109657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5204,13 +5189,13 @@
         <v>47244</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -5219,13 +5204,13 @@
         <v>54062</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -5234,13 +5219,13 @@
         <v>101307</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5240,13 @@
         <v>32629</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5270,13 +5255,13 @@
         <v>29489</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -5285,13 +5270,13 @@
         <v>62117</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5291,13 @@
         <v>8624</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5321,13 +5306,13 @@
         <v>10282</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5336,19 +5321,19 @@
         <v>18906</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -5357,13 +5342,13 @@
         <v>2538</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5372,13 +5357,13 @@
         <v>726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5387,19 +5372,19 @@
         <v>3264</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -5408,13 +5393,13 @@
         <v>3485</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5423,13 +5408,13 @@
         <v>2622</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -5438,13 +5423,13 @@
         <v>6107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5444,13 @@
         <v>94520</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>147</v>
@@ -5474,13 +5459,13 @@
         <v>97181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>288</v>
@@ -5489,18 +5474,18 @@
         <v>191701</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5512,13 +5497,13 @@
         <v>43912</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -5527,13 +5512,13 @@
         <v>36817</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -5542,13 +5527,13 @@
         <v>80729</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5548,13 @@
         <v>18471</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5578,13 +5563,13 @@
         <v>18199</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -5593,13 +5578,13 @@
         <v>36670</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5599,13 @@
         <v>2515</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5629,13 +5614,13 @@
         <v>6172</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -5644,19 +5629,19 @@
         <v>8687</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -5665,13 +5650,13 @@
         <v>1708</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5680,13 +5665,13 @@
         <v>1354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5695,19 +5680,19 @@
         <v>3062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -5716,13 +5701,13 @@
         <v>1821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>391</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>394</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5731,13 +5716,13 @@
         <v>2625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5746,13 +5731,13 @@
         <v>4446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5752,13 @@
         <v>68427</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -5782,13 +5767,13 @@
         <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>208</v>
@@ -5797,13 +5782,13 @@
         <v>133594</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5805,13 @@
         <v>40306</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -5835,13 +5820,13 @@
         <v>40878</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M28" s="7">
         <v>109</v>
@@ -5850,13 +5835,13 @@
         <v>81183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5856,13 @@
         <v>32815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -5886,13 +5871,13 @@
         <v>32199</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M29" s="7">
         <v>86</v>
@@ -5901,13 +5886,13 @@
         <v>65014</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5907,13 @@
         <v>12151</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -5937,13 +5922,13 @@
         <v>10076</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -5952,19 +5937,19 @@
         <v>22227</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>2</v>
@@ -5973,13 +5958,13 @@
         <v>1499</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5988,13 +5973,13 @@
         <v>1826</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -6003,19 +5988,19 @@
         <v>3325</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
@@ -6024,13 +6009,13 @@
         <v>2134</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6039,13 +6024,13 @@
         <v>746</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6054,13 +6039,13 @@
         <v>2880</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6060,13 @@
         <v>88906</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>110</v>
@@ -6090,13 +6075,13 @@
         <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>232</v>
@@ -6105,13 +6090,13 @@
         <v>174630</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6113,13 @@
         <v>168564</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H34" s="7">
         <v>246</v>
@@ -6143,13 +6128,13 @@
         <v>174620</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M34" s="7">
         <v>492</v>
@@ -6158,13 +6143,13 @@
         <v>343184</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6164,13 @@
         <v>112723</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H35" s="7">
         <v>135</v>
@@ -6194,13 +6179,13 @@
         <v>93848</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M35" s="7">
         <v>298</v>
@@ -6209,13 +6194,13 @@
         <v>206571</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>458</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6215,13 @@
         <v>28727</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -6245,13 +6230,13 @@
         <v>30811</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="M36" s="7">
         <v>86</v>
@@ -6260,19 +6245,19 @@
         <v>59538</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>277</v>
+        <v>457</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>10</v>
@@ -6281,13 +6266,13 @@
         <v>6376</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6296,13 +6281,13 @@
         <v>5536</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M37" s="7">
         <v>17</v>
@@ -6314,16 +6299,16 @@
         <v>202</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>11</v>
@@ -6335,10 +6320,10 @@
         <v>167</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>475</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>319</v>
+        <v>467</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -6347,13 +6332,13 @@
         <v>6703</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -6362,13 +6347,13 @@
         <v>14143</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6368,13 @@
         <v>323829</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="7">
         <v>443</v>
@@ -6398,13 +6383,13 @@
         <v>311518</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M39" s="7">
         <v>914</v>
@@ -6413,18 +6398,18 @@
         <v>635347</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6445,7 +6430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA72F1D-A633-482E-99A5-877959290179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CE2191-DA73-4C14-BA13-8178B8BA9426}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6462,7 +6447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6569,13 +6554,13 @@
         <v>10660</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>403</v>
+        <v>475</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6584,13 +6569,13 @@
         <v>6335</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6599,13 +6584,13 @@
         <v>16995</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>488</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6605,13 @@
         <v>2547</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6635,13 +6620,13 @@
         <v>5731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6650,13 +6635,13 @@
         <v>8279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,10 +6659,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6689,10 +6674,10 @@
         <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6704,16 +6689,16 @@
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -6725,10 +6710,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6737,13 +6722,13 @@
         <v>657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6752,19 +6737,19 @@
         <v>657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>502</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6776,10 +6761,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6791,10 +6776,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6806,10 +6791,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6809,13 @@
         <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -6839,13 +6824,13 @@
         <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -6854,18 +6839,18 @@
         <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6877,13 +6862,13 @@
         <v>21992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -6892,13 +6877,13 @@
         <v>24975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -6907,13 +6892,13 @@
         <v>46967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6913,13 @@
         <v>26047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -6943,13 +6928,13 @@
         <v>24963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -6958,13 +6943,13 @@
         <v>51010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6964,13 @@
         <v>8347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>523</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6994,13 +6979,13 @@
         <v>4818</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>525</v>
+        <v>351</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -7009,19 +6994,19 @@
         <v>13165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -7033,10 +7018,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7051,7 +7036,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7060,19 +7045,19 @@
         <v>687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -7081,13 +7066,13 @@
         <v>1450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7096,13 +7081,13 @@
         <v>838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -7111,13 +7096,13 @@
         <v>2288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7117,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -7147,13 +7132,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -7162,18 +7147,18 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7185,13 +7170,13 @@
         <v>53456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -7200,13 +7185,13 @@
         <v>48917</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -7215,13 +7200,13 @@
         <v>102374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7221,13 @@
         <v>37388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -7251,13 +7236,13 @@
         <v>33035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -7266,13 +7251,13 @@
         <v>70423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7272,13 @@
         <v>10320</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -7302,13 +7287,13 @@
         <v>16789</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -7317,19 +7302,19 @@
         <v>27109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -7338,13 +7323,13 @@
         <v>1442</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7353,13 +7338,13 @@
         <v>1166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>567</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7368,19 +7353,19 @@
         <v>2608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>570</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -7389,13 +7374,13 @@
         <v>1405</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>561</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7404,13 +7389,13 @@
         <v>1808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -7419,13 +7404,13 @@
         <v>3213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7425,13 @@
         <v>104011</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>154</v>
@@ -7455,13 +7440,13 @@
         <v>101715</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>304</v>
@@ -7470,18 +7455,18 @@
         <v>205727</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7493,13 +7478,13 @@
         <v>38001</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -7508,13 +7493,13 @@
         <v>38934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>570</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -7523,13 +7508,13 @@
         <v>76935</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7529,13 @@
         <v>23398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -7559,13 +7544,13 @@
         <v>23510</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -7574,13 +7559,13 @@
         <v>46908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7580,13 @@
         <v>10067</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7610,13 +7595,13 @@
         <v>4304</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>594</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -7625,19 +7610,19 @@
         <v>14371</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>597</v>
+        <v>191</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>598</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -7646,13 +7631,13 @@
         <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7661,13 +7646,13 @@
         <v>1915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>391</v>
+        <v>592</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>603</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -7679,16 +7664,16 @@
         <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -7697,13 +7682,13 @@
         <v>2396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>377</v>
+        <v>596</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7715,10 +7700,10 @@
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -7727,13 +7712,13 @@
         <v>2396</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7733,13 @@
         <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>106</v>
@@ -7763,13 +7748,13 @@
         <v>68663</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>210</v>
@@ -7778,13 +7763,13 @@
         <v>143284</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7801,13 +7786,13 @@
         <v>38081</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -7816,13 +7801,13 @@
         <v>54988</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M28" s="7">
         <v>121</v>
@@ -7831,13 +7816,13 @@
         <v>93069</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7837,13 @@
         <v>43205</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -7867,13 +7852,13 @@
         <v>41845</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="M29" s="7">
         <v>115</v>
@@ -7882,13 +7867,13 @@
         <v>85051</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7888,13 @@
         <v>13186</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7918,13 +7903,13 @@
         <v>3829</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -7933,19 +7918,19 @@
         <v>17014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>420</v>
+        <v>625</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>5</v>
@@ -7954,13 +7939,13 @@
         <v>3629</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7969,13 +7954,13 @@
         <v>3222</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>386</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -7984,19 +7969,19 @@
         <v>6850</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -8008,10 +7993,10 @@
         <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8023,10 +8008,10 @@
         <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8038,10 +8023,10 @@
         <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>643</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8041,13 @@
         <v>98101</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>135</v>
@@ -8071,13 +8056,13 @@
         <v>103884</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>268</v>
@@ -8086,13 +8071,13 @@
         <v>201985</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8094,13 @@
         <v>162189</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="H34" s="7">
         <v>244</v>
@@ -8124,13 +8109,13 @@
         <v>174150</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M34" s="7">
         <v>469</v>
@@ -8139,13 +8124,13 @@
         <v>336340</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8145,13 @@
         <v>132586</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>647</v>
       </c>
       <c r="H35" s="7">
         <v>185</v>
@@ -8175,13 +8160,13 @@
         <v>129084</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>264</v>
+        <v>649</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="M35" s="7">
         <v>366</v>
@@ -8190,13 +8175,13 @@
         <v>261671</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8196,13 @@
         <v>41921</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -8226,13 +8211,13 @@
         <v>29739</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>664</v>
+        <v>385</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="M36" s="7">
         <v>102</v>
@@ -8241,19 +8226,19 @@
         <v>71660</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>426</v>
+        <v>660</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>8</v>
@@ -8262,13 +8247,13 @@
         <v>5830</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -8277,13 +8262,13 @@
         <v>7646</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>634</v>
+        <v>467</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -8292,19 +8277,19 @@
         <v>13476</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>672</v>
+        <v>158</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>7</v>
@@ -8313,13 +8298,13 @@
         <v>5251</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -8328,13 +8313,13 @@
         <v>2645</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>471</v>
+        <v>670</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -8343,13 +8328,13 @@
         <v>7896</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>313</v>
+        <v>668</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>677</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8349,13 @@
         <v>347776</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="7">
         <v>489</v>
@@ -8379,13 +8364,13 @@
         <v>343266</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M39" s="7">
         <v>967</v>
@@ -8394,18 +8379,18 @@
         <v>691043</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
